--- a/ExitAssignment/Resources/testDataExcel.xlsx
+++ b/ExitAssignment/Resources/testDataExcel.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanishkjain\eclipse-workspace\ExitAssignment\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanishkjain\git\RedBus_Automation\ExitAssignment\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E53B75-62A6-4F7D-B061-A98C42193B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A13F0-D733-46FC-9C29-79E9A9C7FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchBusTest" sheetId="1" r:id="rId1"/>
     <sheet name="BusHirePageTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="SocialMediaHandleTest" sheetId="3" r:id="rId3"/>
+    <sheet name="rPoolFunctionalityTest" sheetId="4" r:id="rId4"/>
+    <sheet name="HomePageFunctionality" sheetId="5" r:id="rId5"/>
+    <sheet name="HelpPageTest" sheetId="6" r:id="rId6"/>
+    <sheet name="AboutusPageTest" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -70,9 +75,6 @@
     <t>New Delhi</t>
   </si>
   <si>
-    <t>Delhi to Patna(bihar)</t>
-  </si>
-  <si>
     <t>1542chennai</t>
   </si>
   <si>
@@ -85,12 +87,6 @@
     <t>29-July 2021</t>
   </si>
   <si>
-    <t>Dehradun</t>
-  </si>
-  <si>
-    <t>Delhi (All Locations)</t>
-  </si>
-  <si>
     <t>validSourceInvalidDestination</t>
   </si>
   <si>
@@ -139,9 +135,6 @@
     <t>whenUserEntersValidInformationForOutstation</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>New Delhi Railway Station, Kamla Market, Ajmeri Gate, New Delhi, Delhi, India</t>
   </si>
   <si>
@@ -166,24 +159,6 @@
     <t>whenUserDoesNotEnterToLocationForOutstation</t>
   </si>
   <si>
-    <t>whenUserDoesNotEnterFromDateAndTimeForOutstation</t>
-  </si>
-  <si>
-    <t>28-02-2021-11:45 AM</t>
-  </si>
-  <si>
-    <t>whenUserDoesNotEnterTillDateAndTimeForOutstation</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>whenUserEntersPassengerNumberGreaterThan60ForOutstation</t>
-  </si>
-  <si>
-    <t>Assert header Label</t>
-  </si>
-  <si>
     <t>whenUserClickedOnAirportMenu</t>
   </si>
   <si>
@@ -196,32 +171,164 @@
     <t>Local</t>
   </si>
   <si>
-    <t>4-07-2021-10:15 PM</t>
-  </si>
-  <si>
-    <t>1-07-2021-11:30 AM</t>
-  </si>
-  <si>
     <t>Fill Contact Details</t>
   </si>
   <si>
-    <t>1-07-2021-11:00 AM</t>
-  </si>
-  <si>
-    <t>5-07-2021-10:15 PM</t>
-  </si>
-  <si>
-    <t>6-07-2021-10:15 PM</t>
-  </si>
-  <si>
-    <t>7-07-2021-10:15 PM</t>
+    <t>Search Bus Tickets</t>
+  </si>
+  <si>
+    <t>Online Bus Tickets Booking: Book Bus Ticket and Bus Reservation -redBus India</t>
+  </si>
+  <si>
+    <t>Hyderabad (All Locations)</t>
+  </si>
+  <si>
+    <t>Chennai (All Locations)</t>
+  </si>
+  <si>
+    <t>Expected URL</t>
+  </si>
+  <si>
+    <t>userClicksFacebookIcon</t>
+  </si>
+  <si>
+    <t>userClicksTwitterIcon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/redBus.in/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/redbus_in</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnCustomerReview</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnCorporatePlus</t>
+  </si>
+  <si>
+    <t>whenUserClicksOn_What_is_rPool</t>
+  </si>
+  <si>
+    <t>whenUserClicksOn_Rpool_for_rwa</t>
+  </si>
+  <si>
+    <t>whenUserClicksOn_FAQ</t>
+  </si>
+  <si>
+    <t>https://www.redbus.in/rPool/#reviews</t>
+  </si>
+  <si>
+    <t>https://www.redbus.in/rPool/#corporate</t>
+  </si>
+  <si>
+    <t>https://www.redbus.in/rPool/#aboutRpool</t>
+  </si>
+  <si>
+    <t>https://www.redbus.in/rPool/#rwa</t>
+  </si>
+  <si>
+    <t>https://www.redbus.in/rPool/#faqs</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnrpoolLink</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnBusHireLink</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnRedBusLogoLink</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnBusTicketsLink</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnHelp</t>
+  </si>
+  <si>
+    <t>rPool - India’s new Carpool &amp; Bikepool mobile app</t>
+  </si>
+  <si>
+    <t>Bus Hire: Rent Volvo, AC buses, Mini Buses, Tempo Travellers &amp; Innova Cars - Book Online</t>
+  </si>
+  <si>
+    <t>red:Care</t>
+  </si>
+  <si>
+    <t>WhenuserClicks_New_Bus_booking_help</t>
+  </si>
+  <si>
+    <t>WhenuserClicks_Technical_Issue_Option</t>
+  </si>
+  <si>
+    <t>WhenuserClicks_safety_Feature</t>
+  </si>
+  <si>
+    <t>WhenuserClicks_Covid19_travel_Advisory</t>
+  </si>
+  <si>
+    <t>Expected Header</t>
+  </si>
+  <si>
+    <t>Need help to make a new bus ticket booking</t>
+  </si>
+  <si>
+    <t>Government advisory for travel</t>
+  </si>
+  <si>
+    <t>I faced some technical issue with redBus app/website</t>
+  </si>
+  <si>
+    <t>20-07-2021-11:15 AM</t>
+  </si>
+  <si>
+    <t>23-07-2021-10:30 PM</t>
+  </si>
+  <si>
+    <t>21-07-2021-11:15 AM</t>
+  </si>
+  <si>
+    <t>26-07-2021-10:15 PM</t>
+  </si>
+  <si>
+    <t>21-07-2021-11:00 AM</t>
+  </si>
+  <si>
+    <t>25-07-2021-10:15 PM</t>
+  </si>
+  <si>
+    <t>About Us -redBus.in</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnAboutUs</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnSitemap</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnOffers</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnredbusMobile</t>
+  </si>
+  <si>
+    <t>sitemap</t>
+  </si>
+  <si>
+    <t>whenUserClicksOnContactUs</t>
+  </si>
+  <si>
+    <t>Customer Support, 24X7 Customer Service -redBus.in</t>
+  </si>
+  <si>
+    <t>Offers: Bus Offers, Hotel Discounts &amp; Coupon Codes - redBus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +340,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,17 +370,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,15 +700,18 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="55.453125" customWidth="1"/>
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="38.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -620,22 +742,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -644,7 +766,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -653,13 +775,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -668,22 +790,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
@@ -692,22 +814,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -720,16 +842,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DCFA59-85BF-4759-8362-7081C4325A0D}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.36328125" customWidth="1"/>
     <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" customWidth="1"/>
   </cols>
@@ -739,31 +864,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>8</v>
@@ -771,96 +896,96 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>40</v>
@@ -868,127 +993,429 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A0551-F743-459B-9633-699B2132A569}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{AC98502B-E828-4722-96C5-AF1F29589719}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC245237-5F47-4F44-B3D1-D1E62A3F540A}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://twitter.com/redbus_in" xr:uid="{FEFCB3BE-F82D-4E53-8728-91B2EAA09F6C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62400FE3-A0F8-4EA0-8CF1-12DC3F6F4CE1}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="44.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7FD22B-9859-4D2F-9466-022028D01531}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623B43FD-770F-46A8-8794-5842A0F65F5F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ExitAssignment/Resources/testDataExcel.xlsx
+++ b/ExitAssignment/Resources/testDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanishkjain\git\RedBus_Automation\ExitAssignment\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A13F0-D733-46FC-9C29-79E9A9C7FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA78E1E-6981-4529-B015-ED87B7AD5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchBusTest" sheetId="1" r:id="rId1"/>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC245237-5F47-4F44-B3D1-D1E62A3F540A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623B43FD-770F-46A8-8794-5842A0F65F5F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ExitAssignment/Resources/testDataExcel.xlsx
+++ b/ExitAssignment/Resources/testDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanishkjain\git\RedBus_Automation\ExitAssignment\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA78E1E-6981-4529-B015-ED87B7AD5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC25103-AA9C-4A5B-939E-DFC330A7D5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3B8BC32A-6498-442E-AC73-742C756A8BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchBusTest" sheetId="1" r:id="rId1"/>
@@ -279,24 +279,6 @@
     <t>I faced some technical issue with redBus app/website</t>
   </si>
   <si>
-    <t>20-07-2021-11:15 AM</t>
-  </si>
-  <si>
-    <t>23-07-2021-10:30 PM</t>
-  </si>
-  <si>
-    <t>21-07-2021-11:15 AM</t>
-  </si>
-  <si>
-    <t>26-07-2021-10:15 PM</t>
-  </si>
-  <si>
-    <t>21-07-2021-11:00 AM</t>
-  </si>
-  <si>
-    <t>25-07-2021-10:15 PM</t>
-  </si>
-  <si>
     <t>About Us -redBus.in</t>
   </si>
   <si>
@@ -322,6 +304,24 @@
   </si>
   <si>
     <t>Offers: Bus Offers, Hotel Discounts &amp; Coupon Codes - redBus</t>
+  </si>
+  <si>
+    <t>1-08-2021-11:15 AM</t>
+  </si>
+  <si>
+    <t>5-08-2021-10:30 PM</t>
+  </si>
+  <si>
+    <t>10-08-2021-11:00 AM</t>
+  </si>
+  <si>
+    <t>25-08-2021-10:15 PM</t>
+  </si>
+  <si>
+    <t>10-08-2021-11:15 AM</t>
+  </si>
+  <si>
+    <t>13-08-2021-10:15 PM</t>
   </si>
 </sst>
 </file>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DCFA59-85BF-4759-8362-7081C4325A0D}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,10 +911,10 @@
         <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>33</v>
@@ -940,10 +940,10 @@
         <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>33</v>
@@ -969,10 +969,10 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>33</v>
@@ -1091,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC245237-5F47-4F44-B3D1-D1E62A3F540A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1365,18 +1365,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1387,35 +1387,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
